--- a/data/trans_dic/P24_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de estómago con bastante o mucha frecuencia</t>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +681,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,7 +691,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,23</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,01</t>
+          <t>3,2; 25,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 23,13</t>
+          <t>0,0; 12,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 29,16</t>
+          <t>8,09; 34,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 25,34</t>
+          <t>14,08; 38,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,24</t>
+          <t>5,74; 26,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,21</t>
+          <t>14,21; 42,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 17,16</t>
+          <t>1,1; 10,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,42</t>
+          <t>3,9; 20,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 22,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 13,84</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 30,49</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,67</t>
+          <t>1,68; 17,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 37,98</t>
+          <t>5,78; 55,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 18,38</t>
+          <t>3,11; 20,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 18,18</t>
+          <t>1,88; 18,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,39</t>
+          <t>4,84; 51,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 23,09</t>
+          <t>1,66; 16,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 17,25</t>
+          <t>1,77; 16,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 18,4</t>
+          <t>3,5; 20,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,07</t>
+          <t>4,9; 22,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 27,34</t>
+          <t>1,68; 16,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 13,64</t>
+          <t>2,82; 12,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,36</t>
+          <t>5,83; 35,96</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 17,4</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 17,9</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 39,02</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 24,06</t>
+          <t>1,61; 15,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 12,22</t>
+          <t>1,81; 17,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 23,28</t>
+          <t>9,29; 28,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 14,77</t>
+          <t>2,03; 19,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 14,16</t>
+          <t>8,04; 30,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 20,68</t>
+          <t>3,97; 15,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 20,95</t>
+          <t>10,06; 25,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,18</t>
+          <t>8,12; 24,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 17,21</t>
+          <t>8,6; 23,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 15,38</t>
+          <t>11,35; 31,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 20,35</t>
+          <t>3,92; 12,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 15,84</t>
+          <t>8,2; 19,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 21,56</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 19,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 26,41</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,66</t>
+          <t>2,62; 14,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,06</t>
+          <t>4,92; 18,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 17,26</t>
+          <t>5,18; 19,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,41</t>
+          <t>1,27; 9,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 16,64</t>
+          <t>5,7; 19,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,27</t>
+          <t>7,6; 21,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 21,8</t>
+          <t>10,11; 24,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,49</t>
+          <t>13,86; 30,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,56</t>
+          <t>9,96; 24,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 15,37</t>
+          <t>11,86; 27,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 18,59</t>
+          <t>6,09; 15,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,64</t>
+          <t>9,07; 19,47</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 21,86</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 15,01</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 21,07</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,94</t>
+          <t>1,68; 14,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 12,02</t>
+          <t>3,69; 17,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 17,71</t>
+          <t>2,94; 17,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,56</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 20,07</t>
+          <t>1,37; 13,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,35; 22,23</t>
+          <t>3,83; 22,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,07; 28,45</t>
+          <t>5,99; 24,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 30,21</t>
+          <t>10,76; 33,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 13,72</t>
+          <t>8,61; 29,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 14,84</t>
+          <t>6,47; 24,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,73</t>
+          <t>4,46; 14,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 17,58</t>
+          <t>6,59; 17,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>8,37; 21,43</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 16,17</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 15,69</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,43</t>
+          <t>0,0; 12,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,9</t>
+          <t>0,0; 12,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,03</t>
+          <t>4,48; 24,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 15,1</t>
+          <t>0,0; 15,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 20,93</t>
+          <t>2,76; 25,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,2; 21,32</t>
+          <t>4,92; 29,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 18,26</t>
+          <t>10,26; 36,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,36</t>
+          <t>6,29; 28,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,22</t>
+          <t>3,54; 21,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,47</t>
+          <t>9,61; 51,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,0</t>
+          <t>3,82; 17,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,85</t>
+          <t>5,62; 21,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 22,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 15,69</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 37,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>9,45%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>13,1%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,93</t>
+          <t>3,25; 8,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,89</t>
+          <t>5,97; 19,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,1</t>
+          <t>6,71; 13,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,14</t>
+          <t>2,6; 7,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,41</t>
+          <t>8,39; 23,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,23</t>
+          <t>6,58; 12,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,88</t>
+          <t>11,61; 19,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,92</t>
+          <t>14,05; 21,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,73</t>
+          <t>11,1; 18,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,38</t>
+          <t>13,92; 25,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,2</t>
+          <t>5,6; 9,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,42</t>
+          <t>9,91; 16,65</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 16,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 11,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 20,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2773</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16031</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4803</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23394</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31057</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16966</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40441</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7577</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23394</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31057</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16966</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>56472</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16716</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4662; 37426</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14932</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10845; 45657</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16902; 46336</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7036; 32397</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20678; 62287</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2245; 20458</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9406; 48683</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17077; 51638</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7096; 34600</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>32036; 88813</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8075</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36592</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13466</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12407</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45176</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8837</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11589</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13024</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14784</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10853</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16912</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>48181</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>26490</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27190</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>56029</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2297; 24509</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9754; 94083</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4453; 28992</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2896; 28278</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11027; 118294</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2212; 22132</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2926; 26590</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4441; 26413</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6194; 28020</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2736; 25981</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7617; 33442</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19453; 120066</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>12450; 46999</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14344; 50229</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20584; 152202</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7469</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11507</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22322</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11054</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29862</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17629</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42853</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29179</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29796</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43828</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25098</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>54360</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>51501</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>40850</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>73691</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2247; 21809</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2935; 28049</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12483; 38884</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2795; 27254</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14493; 55563</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8546; 32501</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26557; 67404</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17004; 50664</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17231; 46717</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27197; 76461</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13910; 44320</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34956; 83631</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>33486; 74115</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25806; 64415</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>47128; 110895</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10470</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19427</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16976</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6017</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22674</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24394</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35253</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38274</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27805</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39784</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34864</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>54680</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>55249</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>33822</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>62459</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4276; 22885</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9184; 33859</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8351; 32139</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1980; 14394</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11478; 39766</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14530; 40447</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22071; 53340</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25551; 55684</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17174; 42034</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25234; 58610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21602; 55918</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36735; 78885</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>39680; 75547</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>20143; 49342</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>41887; 87262</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9658</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14390</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11590</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3303</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9255</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11633</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15702</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>19218</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16723</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18955</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21291</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30092</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>30808</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>20026</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>28211</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2334; 19964</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5801; 27457</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3888; 22682</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10449</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2113; 20663</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3965; 23386</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6955; 28935</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9908; 31000</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7980; 27361</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8871; 33613</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10804; 36054</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18026; 47527</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>18749; 48024</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>10645; 34914</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>15627; 45759</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13361</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14701</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>27410</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16157</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11923</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>51147</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16886</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29901</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>26642</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>16491</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>64509</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11106</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13843</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3911; 21454</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14184</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3802; 35156</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5265; 31753</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14120; 50068</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6609; 29691</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3914; 23555</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19760; 106156</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7544; 35458</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13870; 53520</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>14813; 42773</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>6562; 31502</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>29803; 127849</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40631</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>84408</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>74840</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>37349</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>136361</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>81998</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>156199</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>146909</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>117996</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>205010</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>122628</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>240607</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>221749</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>155345</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>341370</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24577; 61232</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>53176; 178093</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>51267; 104212</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>20531; 60931</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>87852; 245147</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>57135; 110322</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>120193; 202427</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>117706; 183121</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>91568; 148514</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>153502; 275894</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>90976; 155093</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>190931; 320711</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>180833; 267157</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>122529; 193376</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>268964; 446590</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>